--- a/kl-main/src/main/resources/static/Temp/事故隐患导入模板.xlsx
+++ b/kl-main/src/main/resources/static/Temp/事故隐患导入模板.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="事故隐患" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -17,11 +19,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>重大危险源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>隐患描述</t>
@@ -64,6 +66,15 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,15 +88,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -112,16 +114,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +429,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,52 +438,76 @@
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>